--- a/biology/Botanique/Gabriel_de_Roton/Gabriel_de_Roton.xlsx
+++ b/biology/Botanique/Gabriel_de_Roton/Gabriel_de_Roton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gabriel de Roton (1865-1964), dit aussi Notor, est un illustrateur, archéologue, voyageur, journaliste, écrivain régionaliste et helléniste français[1]. Son titre nobiliaire était vicomte.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabriel de Roton (1865-1964), dit aussi Notor, est un illustrateur, archéologue, voyageur, journaliste, écrivain régionaliste et helléniste français. Son titre nobiliaire était vicomte.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabriel de Roton est le fils de Félix de Roton, inspecteur des Postes, et d'Edmée de Pinteville de Cernon. 
 Condisciple de Victor Bérard et de Paul Claudel (en classe de rhétorique) au lycée Louis-le-Grand, il est ensuite élève de l'École du Louvre et auditeur libre à l'École des Chartes. Son grand-père maternel, le baron de Pinteville de Cernon, lui enseigne le dessin et la peinture. 
@@ -548,7 +562,9 @@
           <t>Œuvre (extrait)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Femme dans l'antiquité grecque (1901)
 La Danse dans l'antiquité grecque (1911)
